--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve"> event_date</t>
+  </si>
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event 1 </t>
+  </si>
+  <si>
+    <t>Event 2</t>
+  </si>
+  <si>
+    <t>Event 3</t>
+  </si>
+  <si>
+    <t>Event 4</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +68,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,7 +149,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -181,7 +221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +371,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44930</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve"> event_date</t>
-  </si>
-  <si>
     <t>event_name</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>Event 4</t>
+  </si>
+  <si>
+    <t>event_date'</t>
   </si>
 </sst>
 </file>
@@ -87,10 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -374,7 +375,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,15 +386,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>44927</v>
@@ -401,7 +402,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>44928</v>
@@ -409,7 +410,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>44929</v>
@@ -417,7 +418,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>44930</v>

--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -36,7 +36,7 @@
     <t>Event 4</t>
   </si>
   <si>
-    <t>event_date'</t>
+    <t>event_date</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>event_name</t>
   </si>
@@ -27,16 +27,13 @@
     <t xml:space="preserve">Event 1 </t>
   </si>
   <si>
+    <t>event_date</t>
+  </si>
+  <si>
     <t>Event 2</t>
   </si>
   <si>
     <t>Event 3</t>
-  </si>
-  <si>
-    <t>Event 4</t>
-  </si>
-  <si>
-    <t>event_date</t>
   </si>
 </sst>
 </file>
@@ -372,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -402,7 +399,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>44928</v>
@@ -410,18 +407,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>44929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44930</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -371,9 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>event_name</t>
   </si>
@@ -28,12 +28,6 @@
   </si>
   <si>
     <t>event_date</t>
-  </si>
-  <si>
-    <t>Event 2</t>
-  </si>
-  <si>
-    <t>Event 3</t>
   </si>
 </sst>
 </file>
@@ -369,9 +363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -395,22 +391,6 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44929</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>event_name</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>event_date</t>
+  </si>
+  <si>
+    <t>Event 2</t>
+  </si>
+  <si>
+    <t>Event 3</t>
   </si>
 </sst>
 </file>
@@ -363,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,6 +397,30 @@
         <v>44927</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44929</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,26 +398,18 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44928</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
         <v>44929</v>
       </c>
     </row>

--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>event_name</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Event 3</t>
+  </si>
+  <si>
+    <t>event_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14:00</t>
   </si>
 </sst>
 </file>
@@ -84,11 +90,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -369,48 +381,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>44927</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>44928</v>
       </c>
+      <c r="C3" s="5">
+        <v>0.625</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>44929</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.6875</v>
       </c>
     </row>
   </sheetData>

--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>event_name</t>
   </si>
@@ -37,15 +37,15 @@
   </si>
   <si>
     <t>event_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  14:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,7 +98,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,8 +412,8 @@
       <c r="B2" s="2">
         <v>44927</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
+      <c r="C2" s="5">
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -24,19 +24,19 @@
     <t>event_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Event 1 </t>
-  </si>
-  <si>
     <t>event_date</t>
   </si>
   <si>
-    <t>Event 2</t>
-  </si>
-  <si>
-    <t>Event 3</t>
-  </si>
-  <si>
     <t>event_time</t>
+  </si>
+  <si>
+    <t>Танцы</t>
+  </si>
+  <si>
+    <t>Шманцы</t>
+  </si>
+  <si>
+    <t>Обжиманцы</t>
   </si>
 </sst>
 </file>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -98,7 +98,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,14 +384,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -399,15 +398,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>44927</v>
@@ -418,7 +417,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>44928</v>
@@ -429,7 +428,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>44929</v>

--- a/Reg4Event/events.xlsx
+++ b/Reg4Event/events.xlsx
@@ -33,10 +33,10 @@
     <t>Танцы</t>
   </si>
   <si>
-    <t>Шманцы</t>
-  </si>
-  <si>
-    <t>Обжиманцы</t>
+    <t>Мьюзикл</t>
+  </si>
+  <si>
+    <t>Концерт</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,7 +409,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>44927</v>
+        <v>45292</v>
       </c>
       <c r="C2" s="5">
         <v>0.58333333333333337</v>
@@ -417,10 +417,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="C3" s="5">
         <v>0.625</v>
@@ -428,10 +428,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>44929</v>
+        <v>45294</v>
       </c>
       <c r="C4" s="5">
         <v>0.6875</v>
